--- a/public/FileDataProduk/Database Produk.xlsx
+++ b/public/FileDataProduk/Database Produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Laravel\POSAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F69DE-B18C-4CAF-9E98-629DD5D0B371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE2CE5B-F93B-451D-8752-6EB66FACE273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9649C9C6-CCC9-48CB-A3E7-9E92B2EEDF08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>KODE PRODUK</t>
   </si>
@@ -373,6 +373,96 @@
   </si>
   <si>
     <t>AGRISTER 500ML</t>
+  </si>
+  <si>
+    <t>DMA 6 825SL 400ML</t>
+  </si>
+  <si>
+    <t>02060001</t>
+  </si>
+  <si>
+    <t>PEREKAT MUTIARA STICK 1LTR</t>
+  </si>
+  <si>
+    <t>06350007</t>
+  </si>
+  <si>
+    <t>ANTRACOL 70WP 1KG</t>
+  </si>
+  <si>
+    <t>04030003</t>
+  </si>
+  <si>
+    <t>PROWL 330EC 250ML</t>
+  </si>
+  <si>
+    <t>02040004</t>
+  </si>
+  <si>
+    <t>KLENSECT 200EC 400ML</t>
+  </si>
+  <si>
+    <t>03160006</t>
+  </si>
+  <si>
+    <t>ROUNDUP 486SL 1LTR</t>
+  </si>
+  <si>
+    <t>02080001</t>
+  </si>
+  <si>
+    <t>AMISTAR TOP 325SC 50ML</t>
+  </si>
+  <si>
+    <t>04010002</t>
+  </si>
+  <si>
+    <t>REGENT SC 100ML</t>
+  </si>
+  <si>
+    <t>03140002</t>
+  </si>
+  <si>
+    <t>DECIS 2,5EC 500ML</t>
+  </si>
+  <si>
+    <t>03030001</t>
+  </si>
+  <si>
+    <t>NPK PAK TANI 16-16-16 1KG</t>
+  </si>
+  <si>
+    <t>06220001</t>
+  </si>
+  <si>
+    <t>SELTIMA 500ML</t>
+  </si>
+  <si>
+    <t>04010022</t>
+  </si>
+  <si>
+    <t>SELTIMA 250ML</t>
+  </si>
+  <si>
+    <t>04010023</t>
+  </si>
+  <si>
+    <t>DITHANE M-45 500GR</t>
+  </si>
+  <si>
+    <t>04040002</t>
+  </si>
+  <si>
+    <t>CABRIO 250EC 100ML</t>
+  </si>
+  <si>
+    <t>04010012</t>
+  </si>
+  <si>
+    <t>CABRIOTOP 60WG 500GR</t>
+  </si>
+  <si>
+    <t>04010025</t>
   </si>
 </sst>
 </file>
@@ -751,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D585875-3913-4320-ABE8-ECBE8B88FFBB}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +956,7 @@
         <v>15000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F55" si="0">E4-D4</f>
+        <f t="shared" ref="F4:F70" si="0">E4-D4</f>
         <v>2000</v>
       </c>
       <c r="G4">
@@ -2250,6 +2340,411 @@
         <v>1</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E56" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>85000</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>149000</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E63" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E64" s="3">
+        <v>138000</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E65" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>185000</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E67" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E68" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>93000</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
         <v>1</v>
       </c>
     </row>
